--- a/biology/Médecine/Leo_Halban/Leo_Halban.xlsx
+++ b/biology/Médecine/Leo_Halban/Leo_Halban.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leo Halban, anciennement Blumenstock, également Leon, né le 11 mars 1838 à Cracovie et mort le 28 février 1897 dans la même ville, est un médecin légiste polonais.
 Appelé autrefois Blumenstok ou Blumenstock, il change de nom en 1893.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Cracovie, où il obtient son diplôme en 1862, et obtient une maîtrise en obstétrique à Vienne. De 1863 à 1866, il est assistant à la clinique ophtalmologique de Cracovie. En 1869, il devient privat-docent et, en 1871, professeur associé de médecine légale à la faculté de droit de Cracovie. En 1881, il devient professeur titulaire à la faculté de médecine. En tant que médecin légiste, il est autodidacte.
 Il est membre de l'Académie polonaise des sciences et président de l'Association médicale de Cracovie.
@@ -547,7 +561,9 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Contributions à la Real-Encyclopädie der gesammten Heilkunde d'Albert Eulenburg.
 Volume 1 (1880) Lire en ligne, p. 634–637: Augenscheinbefund
